--- a/src/test/resources/test_data/Book1.xlsx
+++ b/src/test/resources/test_data/Book1.xlsx
@@ -90,7 +90,7 @@
     <t>Good evening!</t>
   </si>
   <si>
-    <t>Filing</t>
+    <t>Filing Information</t>
   </si>
 </sst>
 </file>
